--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efemp1</t>
   </si>
   <si>
     <t>Egfr</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>69.06020811296339</v>
+        <v>0.6881970000000001</v>
       </c>
       <c r="H2">
-        <v>69.06020811296339</v>
+        <v>2.064591</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.009662075282701755</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.009662075282701759</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.545912018742207</v>
+        <v>0.6986340000000001</v>
       </c>
       <c r="N2">
-        <v>0.545912018742207</v>
+        <v>2.095902</v>
       </c>
       <c r="O2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="P2">
-        <v>0.008360860670826786</v>
+        <v>0.0100360027308206</v>
       </c>
       <c r="Q2">
-        <v>37.70079762570479</v>
+        <v>0.4807978228980001</v>
       </c>
       <c r="R2">
-        <v>37.70079762570479</v>
+        <v>4.327180406082</v>
       </c>
       <c r="S2">
-        <v>0.008360860670826786</v>
+        <v>9.696861392258905E-05</v>
       </c>
       <c r="T2">
-        <v>0.008360860670826786</v>
+        <v>9.696861392258906E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>69.06020811296339</v>
+        <v>0.6881970000000001</v>
       </c>
       <c r="H3">
-        <v>69.06020811296339</v>
+        <v>2.064591</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.009662075282701755</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.009662075282701759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.6627632655321</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
-        <v>45.6627632655321</v>
+        <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393648</v>
       </c>
       <c r="P3">
-        <v>0.6993434626841351</v>
+        <v>0.6595968005393646</v>
       </c>
       <c r="Q3">
-        <v>3153.479934130627</v>
+        <v>31.59950372630901</v>
       </c>
       <c r="R3">
-        <v>3153.479934130627</v>
+        <v>284.395533536781</v>
       </c>
       <c r="S3">
-        <v>0.6993434626841351</v>
+        <v>0.006373073943040556</v>
       </c>
       <c r="T3">
-        <v>0.6993434626841351</v>
+        <v>0.006373073943040557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>69.06020811296339</v>
+        <v>0.6881970000000001</v>
       </c>
       <c r="H4">
-        <v>69.06020811296339</v>
+        <v>2.064591</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.009662075282701755</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.009662075282701759</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.168413918709693</v>
+        <v>0.2330663333333333</v>
       </c>
       <c r="N4">
-        <v>0.168413918709693</v>
+        <v>0.699199</v>
       </c>
       <c r="O4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="P4">
-        <v>0.00257932645008247</v>
+        <v>0.003348039685723394</v>
       </c>
       <c r="Q4">
-        <v>11.6307002752111</v>
+        <v>0.160395551401</v>
       </c>
       <c r="R4">
-        <v>11.6307002752111</v>
+        <v>1.443559962609</v>
       </c>
       <c r="S4">
-        <v>0.00257932645008247</v>
+        <v>3.234901149293256E-05</v>
       </c>
       <c r="T4">
-        <v>0.00257932645008247</v>
+        <v>3.234901149293257E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>69.06020811296339</v>
+        <v>0.6881970000000001</v>
       </c>
       <c r="H5">
-        <v>69.06020811296339</v>
+        <v>2.064591</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.009662075282701755</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.009662075282701759</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.418285581642708</v>
+        <v>0.4381680000000001</v>
       </c>
       <c r="N5">
-        <v>0.418285581642708</v>
+        <v>1.314504</v>
       </c>
       <c r="O5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484072</v>
       </c>
       <c r="P5">
-        <v>0.006406210797095311</v>
+        <v>0.006294361918484071</v>
       </c>
       <c r="Q5">
-        <v>28.88688931889736</v>
+        <v>0.301545903096</v>
       </c>
       <c r="R5">
-        <v>28.88688931889736</v>
+        <v>2.713913127864001</v>
       </c>
       <c r="S5">
-        <v>0.006406210797095311</v>
+        <v>6.081659871296415E-05</v>
       </c>
       <c r="T5">
-        <v>0.006406210797095311</v>
+        <v>6.081659871296416E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>69.06020811296339</v>
+        <v>0.6881970000000001</v>
       </c>
       <c r="H6">
-        <v>69.06020811296339</v>
+        <v>2.064591</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.009662075282701755</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.009662075282701759</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.47964143321696</v>
+        <v>2.539916666666667</v>
       </c>
       <c r="N6">
-        <v>2.47964143321696</v>
+        <v>7.61975</v>
       </c>
       <c r="O6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="P6">
-        <v>0.03797669922069691</v>
+        <v>0.03648635852638638</v>
       </c>
       <c r="Q6">
-        <v>171.2445534234901</v>
+        <v>1.74796303025</v>
       </c>
       <c r="R6">
-        <v>171.2445534234901</v>
+        <v>15.73166727225</v>
       </c>
       <c r="S6">
-        <v>0.03797669922069691</v>
+        <v>0.0003525339428735923</v>
       </c>
       <c r="T6">
-        <v>0.03797669922069691</v>
+        <v>0.0003525339428735924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6881970000000001</v>
+      </c>
+      <c r="H7">
+        <v>2.064591</v>
+      </c>
+      <c r="I7">
+        <v>0.009662075282701755</v>
+      </c>
+      <c r="J7">
+        <v>0.009662075282701759</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N7">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O7">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P7">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q7">
+        <v>13.617096882721</v>
+      </c>
+      <c r="R7">
+        <v>122.553871944489</v>
+      </c>
+      <c r="S7">
+        <v>0.002746333172659123</v>
+      </c>
+      <c r="T7">
+        <v>0.002746333172659124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>70.16729600000001</v>
+      </c>
+      <c r="H8">
+        <v>210.501888</v>
+      </c>
+      <c r="I8">
+        <v>0.9851273637281444</v>
+      </c>
+      <c r="J8">
+        <v>0.9851273637281446</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.095902</v>
+      </c>
+      <c r="O8">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P8">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q8">
+        <v>49.02125867366401</v>
+      </c>
+      <c r="R8">
+        <v>441.191328062976</v>
+      </c>
+      <c r="S8">
+        <v>0.009886740912581756</v>
+      </c>
+      <c r="T8">
+        <v>0.009886740912581756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>70.16729600000001</v>
+      </c>
+      <c r="H9">
+        <v>210.501888</v>
+      </c>
+      <c r="I9">
+        <v>0.9851273637281444</v>
+      </c>
+      <c r="J9">
+        <v>0.9851273637281446</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N9">
+        <v>137.749091</v>
+      </c>
+      <c r="O9">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P9">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q9">
+        <v>3221.827080642646</v>
+      </c>
+      <c r="R9">
+        <v>28996.44372578381</v>
+      </c>
+      <c r="S9">
+        <v>0.6497868572388631</v>
+      </c>
+      <c r="T9">
+        <v>0.6497868572388631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>70.16729600000001</v>
+      </c>
+      <c r="H10">
+        <v>210.501888</v>
+      </c>
+      <c r="I10">
+        <v>0.9851273637281444</v>
+      </c>
+      <c r="J10">
+        <v>0.9851273637281446</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.699199</v>
+      </c>
+      <c r="O10">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P10">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q10">
+        <v>16.35363439863467</v>
+      </c>
+      <c r="R10">
+        <v>147.182709587712</v>
+      </c>
+      <c r="S10">
+        <v>0.003298245509253892</v>
+      </c>
+      <c r="T10">
+        <v>0.003298245509253893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>70.16729600000001</v>
+      </c>
+      <c r="H11">
+        <v>210.501888</v>
+      </c>
+      <c r="I11">
+        <v>0.9851273637281444</v>
+      </c>
+      <c r="J11">
+        <v>0.9851273637281446</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N11">
+        <v>1.314504</v>
+      </c>
+      <c r="O11">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P11">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q11">
+        <v>30.74506375372801</v>
+      </c>
+      <c r="R11">
+        <v>276.705573783552</v>
+      </c>
+      <c r="S11">
+        <v>0.006200748163107039</v>
+      </c>
+      <c r="T11">
+        <v>0.006200748163107039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>70.16729600000001</v>
+      </c>
+      <c r="H12">
+        <v>210.501888</v>
+      </c>
+      <c r="I12">
+        <v>0.9851273637281444</v>
+      </c>
+      <c r="J12">
+        <v>0.9851273637281446</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N12">
+        <v>7.61975</v>
+      </c>
+      <c r="O12">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P12">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q12">
+        <v>178.2190845653334</v>
+      </c>
+      <c r="R12">
+        <v>1603.971761088</v>
+      </c>
+      <c r="S12">
+        <v>0.03594371018713892</v>
+      </c>
+      <c r="T12">
+        <v>0.03594371018713892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>70.16729600000001</v>
+      </c>
+      <c r="H13">
+        <v>210.501888</v>
+      </c>
+      <c r="I13">
+        <v>0.9851273637281444</v>
+      </c>
+      <c r="J13">
+        <v>0.9851273637281446</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N13">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O13">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P13">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q13">
+        <v>1388.374066772395</v>
+      </c>
+      <c r="R13">
+        <v>12495.36660095155</v>
+      </c>
+      <c r="S13">
+        <v>0.2800110617171999</v>
+      </c>
+      <c r="T13">
+        <v>0.2800110617171999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.112086</v>
+      </c>
+      <c r="H14">
+        <v>0.336258</v>
+      </c>
+      <c r="I14">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="J14">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.095902</v>
+      </c>
+      <c r="O14">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P14">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q14">
+        <v>0.07830709052400002</v>
+      </c>
+      <c r="R14">
+        <v>0.704763814716</v>
+      </c>
+      <c r="S14">
+        <v>1.57931872125675E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.57931872125675E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.112086</v>
+      </c>
+      <c r="H15">
+        <v>0.336258</v>
+      </c>
+      <c r="I15">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="J15">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N15">
+        <v>137.749091</v>
+      </c>
+      <c r="O15">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P15">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q15">
+        <v>5.146581537942001</v>
+      </c>
+      <c r="R15">
+        <v>46.31923384147801</v>
+      </c>
+      <c r="S15">
+        <v>0.00103797657644489</v>
+      </c>
+      <c r="T15">
+        <v>0.00103797657644489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.112086</v>
+      </c>
+      <c r="H16">
+        <v>0.336258</v>
+      </c>
+      <c r="I16">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="J16">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.699199</v>
+      </c>
+      <c r="O16">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P16">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q16">
+        <v>0.026123473038</v>
+      </c>
+      <c r="R16">
+        <v>0.235111257342</v>
+      </c>
+      <c r="S16">
+        <v>5.268653165004844E-06</v>
+      </c>
+      <c r="T16">
+        <v>5.268653165004845E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>69.06020811296339</v>
-      </c>
-      <c r="H7">
-        <v>69.06020811296339</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="N7">
-        <v>16.0187424315542</v>
-      </c>
-      <c r="O7">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="P7">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="Q7">
-        <v>1106.257686031091</v>
-      </c>
-      <c r="R7">
-        <v>1106.257686031091</v>
-      </c>
-      <c r="S7">
-        <v>0.2453334401771635</v>
-      </c>
-      <c r="T7">
-        <v>0.2453334401771635</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.112086</v>
+      </c>
+      <c r="H17">
+        <v>0.336258</v>
+      </c>
+      <c r="I17">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="J17">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.314504</v>
+      </c>
+      <c r="O17">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P17">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q17">
+        <v>0.04911249844800001</v>
+      </c>
+      <c r="R17">
+        <v>0.4420124860320001</v>
+      </c>
+      <c r="S17">
+        <v>9.905142398675524E-06</v>
+      </c>
+      <c r="T17">
+        <v>9.905142398675526E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.112086</v>
+      </c>
+      <c r="H18">
+        <v>0.336258</v>
+      </c>
+      <c r="I18">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="J18">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N18">
+        <v>7.61975</v>
+      </c>
+      <c r="O18">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P18">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q18">
+        <v>0.2846890995</v>
+      </c>
+      <c r="R18">
+        <v>2.5622018955</v>
+      </c>
+      <c r="S18">
+        <v>5.741687267007771E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.741687267007771E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.112086</v>
+      </c>
+      <c r="H19">
+        <v>0.336258</v>
+      </c>
+      <c r="I19">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="J19">
+        <v>0.001573653140215533</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N19">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O19">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P19">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q19">
+        <v>2.217803799198</v>
+      </c>
+      <c r="R19">
+        <v>19.960234192782</v>
+      </c>
+      <c r="S19">
+        <v>0.0004472927083243177</v>
+      </c>
+      <c r="T19">
+        <v>0.0004472927083243177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2590446666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.777134</v>
+      </c>
+      <c r="I20">
+        <v>0.003636907848938189</v>
+      </c>
+      <c r="J20">
+        <v>0.003636907848938191</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6986340000000001</v>
+      </c>
+      <c r="N20">
+        <v>2.095902</v>
+      </c>
+      <c r="O20">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="P20">
+        <v>0.0100360027308206</v>
+      </c>
+      <c r="Q20">
+        <v>0.180977411652</v>
+      </c>
+      <c r="R20">
+        <v>1.628796704868</v>
+      </c>
+      <c r="S20">
+        <v>3.650001710368654E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.650001710368655E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2590446666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.777134</v>
+      </c>
+      <c r="I21">
+        <v>0.003636907848938189</v>
+      </c>
+      <c r="J21">
+        <v>0.003636907848938191</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>45.91636366666668</v>
+      </c>
+      <c r="N21">
+        <v>137.749091</v>
+      </c>
+      <c r="O21">
+        <v>0.6595968005393648</v>
+      </c>
+      <c r="P21">
+        <v>0.6595968005393646</v>
+      </c>
+      <c r="Q21">
+        <v>11.89438912057711</v>
+      </c>
+      <c r="R21">
+        <v>107.049502085194</v>
+      </c>
+      <c r="S21">
+        <v>0.002398892781016133</v>
+      </c>
+      <c r="T21">
+        <v>0.002398892781016133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.2590446666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.777134</v>
+      </c>
+      <c r="I22">
+        <v>0.003636907848938189</v>
+      </c>
+      <c r="J22">
+        <v>0.003636907848938191</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.2330663333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.699199</v>
+      </c>
+      <c r="O22">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="P22">
+        <v>0.003348039685723394</v>
+      </c>
+      <c r="Q22">
+        <v>0.06037459062955555</v>
+      </c>
+      <c r="R22">
+        <v>0.5433713156660001</v>
+      </c>
+      <c r="S22">
+        <v>1.217651181156396E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.217651181156396E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.2590446666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.777134</v>
+      </c>
+      <c r="I23">
+        <v>0.003636907848938189</v>
+      </c>
+      <c r="J23">
+        <v>0.003636907848938191</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4381680000000001</v>
+      </c>
+      <c r="N23">
+        <v>1.314504</v>
+      </c>
+      <c r="O23">
+        <v>0.006294361918484072</v>
+      </c>
+      <c r="P23">
+        <v>0.006294361918484071</v>
+      </c>
+      <c r="Q23">
+        <v>0.113505083504</v>
+      </c>
+      <c r="R23">
+        <v>1.021545751536</v>
+      </c>
+      <c r="S23">
+        <v>2.289201426539236E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.289201426539237E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.2590446666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.777134</v>
+      </c>
+      <c r="I24">
+        <v>0.003636907848938189</v>
+      </c>
+      <c r="J24">
+        <v>0.003636907848938191</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.539916666666667</v>
+      </c>
+      <c r="N24">
+        <v>7.61975</v>
+      </c>
+      <c r="O24">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="P24">
+        <v>0.03648635852638638</v>
+      </c>
+      <c r="Q24">
+        <v>0.6579518662777777</v>
+      </c>
+      <c r="R24">
+        <v>5.9215667965</v>
+      </c>
+      <c r="S24">
+        <v>0.0001326975237037875</v>
+      </c>
+      <c r="T24">
+        <v>0.0001326975237037875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.2590446666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.777134</v>
+      </c>
+      <c r="I25">
+        <v>0.003636907848938189</v>
+      </c>
+      <c r="J25">
+        <v>0.003636907848938191</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.78662633333333</v>
+      </c>
+      <c r="N25">
+        <v>59.35987900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.284238436599221</v>
+      </c>
+      <c r="P25">
+        <v>0.2842384365992209</v>
+      </c>
+      <c r="Q25">
+        <v>5.125620022976222</v>
+      </c>
+      <c r="R25">
+        <v>46.13058020678601</v>
+      </c>
+      <c r="S25">
+        <v>0.001033749001037627</v>
+      </c>
+      <c r="T25">
+        <v>0.001033749001037627</v>
       </c>
     </row>
   </sheetData>
